--- a/data/turm/MCT-3A/MCT-3A_(3)bimestre.xlsx
+++ b/data/turm/MCT-3A/MCT-3A_(3)bimestre.xlsx
@@ -473,12 +473,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Carlos-Processos de Usinagem 1_(3)bimestre</t>
+          <t>0_(3)bimestre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[João Paulo-Laboratório de Eletroeletrônica, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -488,12 +488,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Ludoff-Eletrohidráulica_(3)bimestre</t>
+          <t>Rogério-Processos de Usinagem 2_(3)bimestre</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Nilton-Elementos de Máquinas_(3)bimestre</t>
+          <t>0_(3)bimestre</t>
         </is>
       </c>
     </row>
@@ -505,27 +505,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Carlos-Processos de Usinagem 1_(3)bimestre</t>
+          <t>0_(3)bimestre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[0, 0, João Paulo-Laboratório de Eletroeletrônica]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Ludoff-Eletrohidráulica_(3)bimestre</t>
+          <t>Rogério-Processos de Usinagem 2_(3)bimestre</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Nilton-Elementos de Máquinas_(3)bimestre</t>
+          <t>Leonardo R.-Manutenção mecânica_(3)bimestre</t>
         </is>
       </c>
     </row>
@@ -537,27 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
+          <t>0_(3)bimestre</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>[0, 0, João Paulo-Laboratório de Eletroeletrônica]</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Vinicius-CAM_(3)bimestre</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>Carlos-Processos de Usinagem 1_(3)bimestre</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>[Pedro Bispo-Laboratório de Máquinas Elétricas, João Paulo-Laboratório de Eletroeletrônica, 0]</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>[0, Pedro Bispo-Laboratório de Máquinas Elétricas, 0]</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>Rogério-Processos de Usinagem 2_(3)bimestre</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Nilton-Elementos de Máquinas_(3)bimestre</t>
         </is>
       </c>
     </row>
@@ -606,22 +606,22 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[Pedro Bispo-Laboratório de Máquinas Elétricas, João Paulo-Laboratório de Eletroeletrônica, 0]</t>
+          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[0, Pedro Bispo-Laboratório de Máquinas Elétricas, João Paulo-Laboratório de Eletroeletrônica]</t>
+          <t>[0, 0, João Paulo-Laboratório de Eletroeletrônica]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Rogério-Processos de Usinagem 2_(3)bimestre</t>
+          <t>Vinicius-CAM_(3)bimestre</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Nilton-Elementos de Máquinas_(3)bimestre</t>
+          <t>Renan-Máquinas Elétricas</t>
         </is>
       </c>
     </row>
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>Carlos-Processos de Usinagem 1_(3)bimestre</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>[0, 0, João Paulo-Laboratório de Eletroeletrônica]</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Vinicius-CAM_(3)bimestre</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>Renan-Máquinas Elétricas</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>[0, João Paulo-Laboratório de Eletroeletrônica, 0]</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>[0, Pedro Bispo-Laboratório de Máquinas Elétricas, João Paulo-Laboratório de Eletroeletrônica]</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Rogério-Processos de Usinagem 2_(3)bimestre</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>Ludoff-Eletrohidráulica_(3)bimestre</t>
         </is>
       </c>
     </row>
@@ -665,27 +665,27 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Renan-Máquinas Elétricas</t>
+          <t>Carlos-Processos de Usinagem 1_(3)bimestre</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[0, Pedro Bispo-Laboratório de Máquinas Elétricas, João Paulo-Laboratório de Eletroeletrônica]</t>
+          <t>[0, 0, João Paulo-Laboratório de Eletroeletrônica]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Rogério-Processos de Usinagem 2_(3)bimestre</t>
+          <t>Vinicius-CAM_(3)bimestre</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Ludoff-Eletrohidráulica_(3)bimestre</t>
+          <t>-</t>
         </is>
       </c>
     </row>

--- a/data/turm/MCT-3A/MCT-3A_(3)bimestre.xlsx
+++ b/data/turm/MCT-3A/MCT-3A_(3)bimestre.xlsx
@@ -473,12 +473,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0_(3)bimestre</t>
+          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>[João Paulo-Laboratório de Eletroeletrônica, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
+          <t>Ludoff-Eletrohidráulica_(3)bimestre</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -488,12 +488,12 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Rogério-Processos de Usinagem 2_(3)bimestre</t>
+          <t>Leonardo R.-Manutenção mecânica_(3)bimestre</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>0_(3)bimestre</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -505,27 +505,27 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>0_(3)bimestre</t>
+          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
+          <t>Ludoff-Eletrohidráulica_(3)bimestre</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>[0, 0, João Paulo-Laboratório de Eletroeletrônica]</t>
+          <t>-</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Rogério-Processos de Usinagem 2_(3)bimestre</t>
+          <t>Leonardo R.-Manutenção mecânica_(3)bimestre</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Leonardo R.-Manutenção mecânica_(3)bimestre</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -537,27 +537,27 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0_(3)bimestre</t>
+          <t>[0, João Paulo-Laboratório de Eletroeletrônica, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
+          <t>Emerson-Robótica_(3)bimestre</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>[0, 0, João Paulo-Laboratório de Eletroeletrônica]</t>
+          <t>[João Paulo-Laboratório de Eletroeletrônica, 0, 0]</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Vinicius-CAM_(3)bimestre</t>
+          <t>Cláudio-Tecnologia da Soldagem_(3)bimestre</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Carlos-Processos de Usinagem 1_(3)bimestre</t>
+          <t>Renan-Máquinas Elétricas</t>
         </is>
       </c>
     </row>
@@ -601,22 +601,22 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>Carlos-Processos de Usinagem 1_(3)bimestre</t>
+          <t>[0, João Paulo-Laboratório de Eletroeletrônica, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
+          <t>Emerson-Robótica_(3)bimestre</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>[0, 0, João Paulo-Laboratório de Eletroeletrônica]</t>
+          <t>[João Paulo-Laboratório de Eletroeletrônica, 0, 0]</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Vinicius-CAM_(3)bimestre</t>
+          <t>Cláudio-Tecnologia da Soldagem_(3)bimestre</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -633,27 +633,27 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Carlos-Processos de Usinagem 1_(3)bimestre</t>
+          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
+          <t>Rogério-Processos de Usinagem 2_(3)bimestre</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[0, 0, João Paulo-Laboratório de Eletroeletrônica]</t>
+          <t>[João Paulo-Laboratório de Eletroeletrônica, 0, 0]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Vinicius-CAM_(3)bimestre</t>
+          <t>Cláudio-Tecnologia da Soldagem_(3)bimestre</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Renan-Máquinas Elétricas</t>
+          <t>-</t>
         </is>
       </c>
     </row>
@@ -665,22 +665,22 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>Carlos-Processos de Usinagem 1_(3)bimestre</t>
+          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
+          <t>Rogério-Processos de Usinagem 2_(3)bimestre</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[0, 0, João Paulo-Laboratório de Eletroeletrônica]</t>
+          <t>[João Paulo-Laboratório de Eletroeletrônica, 0, 0]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Vinicius-CAM_(3)bimestre</t>
+          <t>Cláudio-Tecnologia da Soldagem_(3)bimestre</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">

--- a/data/turm/MCT-3A/MCT-3A_(3)bimestre.xlsx
+++ b/data/turm/MCT-3A/MCT-3A_(3)bimestre.xlsx
@@ -473,7 +473,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
+          <t>Vinicius-CAM_(3)bimestre</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -483,12 +483,12 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[João Paulo-Laboratório de Eletroeletrônica, 0, 0]</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Leonardo R.-Manutenção mecânica_(3)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -505,7 +505,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
+          <t>Leonardo R.-Manutenção mecânica_(3)bimestre</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -515,12 +515,12 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>[João Paulo-Laboratório de Eletroeletrônica, 0, 0]</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>Leonardo R.-Manutenção mecânica_(3)bimestre</t>
+          <t>-</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -537,12 +537,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>[0, João Paulo-Laboratório de Eletroeletrônica, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
+          <t>Leonardo R.-Manutenção mecânica_(3)bimestre</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Emerson-Robótica_(3)bimestre</t>
+          <t>Ludoff-Eletrohidráulica_(3)bimestre</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -552,7 +552,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Cláudio-Tecnologia da Soldagem_(3)bimestre</t>
+          <t>[0, Pedro Bispo-Laboratório de Máquinas Elétricas, 0]</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -601,12 +601,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>[0, João Paulo-Laboratório de Eletroeletrônica, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
+          <t>Leonardo R.-Manutenção mecânica_(3)bimestre</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Emerson-Robótica_(3)bimestre</t>
+          <t>Rogério-Processos de Usinagem 2_(3)bimestre</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -616,7 +616,7 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Cláudio-Tecnologia da Soldagem_(3)bimestre</t>
+          <t>[0, Pedro Bispo-Laboratório de Máquinas Elétricas, 0]</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
@@ -633,7 +633,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
+          <t>Leonardo R.-Manutenção mecânica_(3)bimestre</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -643,17 +643,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>[João Paulo-Laboratório de Eletroeletrônica, 0, 0]</t>
+          <t>[João Paulo-Laboratório de Eletroeletrônica, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Cláudio-Tecnologia da Soldagem_(3)bimestre</t>
+          <t>[0, Pedro Bispo-Laboratório de Máquinas Elétricas, 0]</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>-</t>
+          <t>0_(3)bimestre</t>
         </is>
       </c>
     </row>
@@ -665,7 +665,7 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>[0, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
+          <t>Nilton-Elementos de Máquinas_(3)bimestre</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
@@ -675,12 +675,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>[João Paulo-Laboratório de Eletroeletrônica, 0, 0]</t>
+          <t>[João Paulo-Laboratório de Eletroeletrônica, 0, Pedro Bispo-Laboratório de Máquinas Elétricas]</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Cláudio-Tecnologia da Soldagem_(3)bimestre</t>
+          <t>[0, Pedro Bispo-Laboratório de Máquinas Elétricas, 0]</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
